--- a/Rapberry/NewModbusQueries.xlsx
+++ b/Rapberry/NewModbusQueries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b3267cbc70d7e56/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luissanchez/MICO/PowerTIC/Rapberry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{8D7CA2D2-98EB-A345-B173-2165F4167568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6680ECD-EB1F-CE4F-84A6-22D0BDDC12D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988B101-AE3A-A040-A156-6CFBC179135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="740" windowWidth="17080" windowHeight="21600" xr2:uid="{A3B117F8-27DB-2A4B-BEB9-949A1A054FBE}"/>
+    <workbookView xWindow="17480" yWindow="760" windowWidth="17080" windowHeight="19880" xr2:uid="{A3B117F8-27DB-2A4B-BEB9-949A1A054FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
   <si>
     <t>parameter_description</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Input active power rate1 max demand and occur time</t>
   </si>
   <si>
-    <t>HEX</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -152,72 +149,15 @@
     <t>[5632,5633]</t>
   </si>
   <si>
-    <t xml:space="preserve">[1600H,1601H] </t>
-  </si>
-  <si>
     <t>[5634,5636]</t>
   </si>
   <si>
-    <t>[1602H,1604H]</t>
-  </si>
-  <si>
     <t>[5637,5638]</t>
   </si>
   <si>
-    <t>[1605H,1606H]</t>
-  </si>
-  <si>
     <t>[5639,5641]</t>
   </si>
   <si>
-    <t>[1607H,1609H]</t>
-  </si>
-  <si>
-    <t>[160AH,160BH]</t>
-  </si>
-  <si>
-    <t>[160CH,160EH]</t>
-  </si>
-  <si>
-    <t>[160FH,1600H]</t>
-  </si>
-  <si>
-    <t>[1614H,1615H]</t>
-  </si>
-  <si>
-    <t>[1616H,1618H]</t>
-  </si>
-  <si>
-    <t>[1619H,161AH]</t>
-  </si>
-  <si>
-    <t>[161BH,161DH]</t>
-  </si>
-  <si>
-    <t>[161EH,161FH]</t>
-  </si>
-  <si>
-    <t>[1620H,1622H]</t>
-  </si>
-  <si>
-    <t>[1623H,1624H]</t>
-  </si>
-  <si>
-    <t>[1625H,1627H]</t>
-  </si>
-  <si>
-    <t>[1628H,1629H]</t>
-  </si>
-  <si>
-    <t>[162AH,162CH]</t>
-  </si>
-  <si>
-    <t>[162DH,162EH]</t>
-  </si>
-  <si>
-    <t>[162FH,1631H]</t>
-  </si>
-  <si>
     <t>[5642,5643]</t>
   </si>
   <si>
@@ -228,9 +168,6 @@
   </si>
   <si>
     <t>[5649,5651]</t>
-  </si>
-  <si>
-    <t>[1611H,1613H]</t>
   </si>
   <si>
     <t>[5652,5653]</t>
@@ -650,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BFAE17-CCC5-BB47-962F-792431E5C004}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -666,7 +603,7 @@
     <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,28 +634,25 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17">
+    </row>
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -730,30 +664,27 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -765,30 +696,27 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -800,30 +728,27 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -835,30 +760,27 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -870,30 +792,27 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -905,30 +824,27 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -940,30 +856,27 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -975,30 +888,27 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1010,30 +920,27 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1045,30 +952,27 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1080,30 +984,27 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1115,30 +1016,27 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1150,30 +1048,27 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1185,30 +1080,27 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1220,30 +1112,27 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1255,30 +1144,27 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1290,30 +1176,27 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1325,30 +1208,27 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1360,30 +1240,27 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1395,10 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Rapberry/NewModbusQueries.xlsx
+++ b/Rapberry/NewModbusQueries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luissanchez/MICO/PowerTIC/Rapberry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988B101-AE3A-A040-A156-6CFBC179135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1156AD7B-0B15-AA4B-AA32-18DB1A5F8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17480" yWindow="760" windowWidth="17080" windowHeight="19880" xr2:uid="{A3B117F8-27DB-2A4B-BEB9-949A1A054FBE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="57">
   <si>
     <t>parameter_description</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>[5679,5681]</t>
+  </si>
+  <si>
+    <t>serial</t>
   </si>
 </sst>
 </file>
@@ -587,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BFAE17-CCC5-BB47-962F-792431E5C004}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K21"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,675 +606,738 @@
     <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="17">
+      <c r="A2">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" ht="17">
+      <c r="A4">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" ht="17">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" ht="17">
+      <c r="A7">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" ht="17">
+      <c r="A8">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" ht="17">
+      <c r="A9">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" ht="17">
+      <c r="A10">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" ht="17">
+      <c r="A11">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" ht="17">
+      <c r="A12">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" ht="17">
+      <c r="A13">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" ht="17">
+      <c r="A14">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" ht="17">
+      <c r="A15">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
       <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="17">
-      <c r="A17" t="s">
+    <row r="17" spans="1:11" ht="17">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17">
-      <c r="A18" t="s">
+    <row r="18" spans="1:11" ht="17">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
       <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" ht="17">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
       <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
         <v>3</v>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" ht="17">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" ht="17">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
       <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
         <v>3</v>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>55</v>
       </c>
     </row>
